--- a/Documents/Intensity Files/speaker0oclickTrain.xlsx
+++ b/Documents/Intensity Files/speaker0oclickTrain.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20337"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MonkeyTrainingGUI\Documents\Intensity Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C38AF-1299-4CE6-946C-B1A5734B7DD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="16095" windowHeight="10020"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="16095" windowHeight="10020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,9 +327,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,12 +625,12 @@
         <v>87.947800000000001</v>
       </c>
       <c r="C2">
-        <f>B2-24.35+20</f>
-        <v>83.597800000000007</v>
+        <f>B2-23.35+20</f>
+        <v>84.597800000000007</v>
       </c>
       <c r="D2">
         <f>C2-60</f>
-        <v>23.597800000000007</v>
+        <v>24.597800000000007</v>
       </c>
       <c r="F2">
         <f>500/A2</f>
@@ -617,12 +657,12 @@
         <v>91.204400000000007</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C27" si="0">B3-24.35+20</f>
-        <v>86.854399999999998</v>
+        <f t="shared" ref="C3:C27" si="0">B3-23.35+20</f>
+        <v>87.854399999999998</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D40" si="1">C3-60</f>
-        <v>26.854399999999998</v>
+        <v>27.854399999999998</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F29" si="2">500/A3</f>
@@ -650,11 +690,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>90.280799999999999</v>
+        <v>91.280799999999999</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>30.280799999999999</v>
+        <v>31.280799999999999</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
@@ -682,11 +722,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>87.862799999999993</v>
+        <v>88.862799999999993</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>27.862799999999993</v>
+        <v>28.862799999999993</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
@@ -714,11 +754,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>86.782800000000009</v>
+        <v>87.782800000000009</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>26.782800000000009</v>
+        <v>27.782800000000009</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -746,11 +786,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>86.102599999999995</v>
+        <v>87.102599999999995</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>26.102599999999995</v>
+        <v>27.102599999999995</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -778,11 +818,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>86.661399999999986</v>
+        <v>87.661399999999986</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>26.661399999999986</v>
+        <v>27.661399999999986</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -810,11 +850,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>91.454199999999986</v>
+        <v>92.454199999999986</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>31.454199999999986</v>
+        <v>32.454199999999986</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
@@ -842,11 +882,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>91.452200000000005</v>
+        <v>92.452200000000005</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>31.452200000000005</v>
+        <v>32.452200000000005</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
@@ -874,11 +914,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>91.634399999999999</v>
+        <v>92.634399999999999</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>31.634399999999999</v>
+        <v>32.634399999999999</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
@@ -906,11 +946,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>93.858900000000006</v>
+        <v>94.858900000000006</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>33.858900000000006</v>
+        <v>34.858900000000006</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
@@ -938,11 +978,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>92.163900000000012</v>
+        <v>93.163900000000012</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>32.163900000000012</v>
+        <v>33.163900000000012</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -970,11 +1010,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>93.301199999999994</v>
+        <v>94.301199999999994</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>33.301199999999994</v>
+        <v>34.301199999999994</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -1002,11 +1042,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>90.871199999999988</v>
+        <v>91.871199999999988</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>30.871199999999988</v>
+        <v>31.871199999999988</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -1034,11 +1074,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>92.464100000000002</v>
+        <v>93.464100000000002</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>32.464100000000002</v>
+        <v>33.464100000000002</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -1066,11 +1106,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>92.198599999999999</v>
+        <v>93.198599999999999</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>32.198599999999999</v>
+        <v>33.198599999999999</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -1098,11 +1138,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>88.967999999999989</v>
+        <v>89.967999999999989</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>28.967999999999989</v>
+        <v>29.967999999999989</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -1130,11 +1170,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>90.865499999999997</v>
+        <v>91.865499999999997</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>30.865499999999997</v>
+        <v>31.865499999999997</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -1162,11 +1202,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>84.167300000000012</v>
+        <v>85.167300000000012</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>24.167300000000012</v>
+        <v>25.167300000000012</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -1194,11 +1234,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>91.504500000000007</v>
+        <v>92.504500000000007</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>31.504500000000007</v>
+        <v>32.504500000000007</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -1226,11 +1266,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>95.092999999999989</v>
+        <v>96.092999999999989</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>35.092999999999989</v>
+        <v>36.092999999999989</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -1258,11 +1298,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>92.7654</v>
+        <v>93.7654</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>32.7654</v>
+        <v>33.7654</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -1290,11 +1330,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>90.836999999999989</v>
+        <v>91.836999999999989</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>30.836999999999989</v>
+        <v>31.836999999999989</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
@@ -1322,11 +1362,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>93.832699999999988</v>
+        <v>94.832699999999988</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>33.832699999999988</v>
+        <v>34.832699999999988</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -1354,11 +1394,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>92.818399999999997</v>
+        <v>93.818399999999997</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>32.818399999999997</v>
+        <v>33.818399999999997</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
@@ -1386,11 +1426,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>79.685000000000002</v>
+        <v>80.685000000000002</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>19.685000000000002</v>
+        <v>20.685000000000002</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
@@ -1452,12 +1492,12 @@
         <v>85.691800000000001</v>
       </c>
       <c r="C29">
-        <f>B29-24.35+10</f>
-        <v>71.341800000000006</v>
+        <f>B29-23.35+10</f>
+        <v>72.341800000000006</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>11.341800000000006</v>
+        <v>12.341800000000006</v>
       </c>
       <c r="F29" t="e">
         <f t="shared" si="2"/>
@@ -1479,12 +1519,12 @@
         <v>83.306299999999993</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C39" si="6">B30-24.35+10</f>
-        <v>68.956299999999999</v>
+        <f t="shared" ref="C30:C40" si="6">B30-23.35+10</f>
+        <v>69.956299999999999</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>8.9562999999999988</v>
+        <v>9.9562999999999988</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1496,11 +1536,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>71.309200000000004</v>
+        <v>72.309200000000004</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>11.309200000000004</v>
+        <v>12.309200000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1512,11 +1552,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>68.863200000000006</v>
+        <v>69.863200000000006</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>8.8632000000000062</v>
+        <v>9.8632000000000062</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1528,11 +1568,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>74.116500000000002</v>
+        <v>75.116500000000002</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>14.116500000000002</v>
+        <v>15.116500000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -1544,11 +1584,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>71.828900000000004</v>
+        <v>72.828900000000004</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>11.828900000000004</v>
+        <v>12.828900000000004</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1560,11 +1600,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>74.09790000000001</v>
+        <v>75.09790000000001</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>14.09790000000001</v>
+        <v>15.09790000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -1576,11 +1616,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>71.795099999999991</v>
+        <v>72.795099999999991</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>11.795099999999991</v>
+        <v>12.795099999999991</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1592,11 +1632,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>77.14070000000001</v>
+        <v>78.14070000000001</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>17.14070000000001</v>
+        <v>18.14070000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -1608,11 +1648,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>74.854399999999998</v>
+        <v>75.854399999999998</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>14.854399999999998</v>
+        <v>15.854399999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -1624,11 +1664,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>76.918700000000001</v>
+        <v>77.918700000000001</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>16.918700000000001</v>
+        <v>17.918700000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -1639,12 +1679,12 @@
         <v>89.2316</v>
       </c>
       <c r="C40">
-        <f>B40-24.35+10</f>
-        <v>74.881599999999992</v>
+        <f t="shared" si="6"/>
+        <v>75.881599999999992</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>14.881599999999992</v>
+        <v>15.881599999999992</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1668,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
